--- a/hydrogen_comps/H10_chain/H10_2.32/H10_2.32_energies.xlsx
+++ b/hydrogen_comps/H10_chain/H10_2.32/H10_2.32_energies.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0072681601</v>
+        <v>-0.0072684508</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.01938951</v>
+        <v>-5.01938952</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-5.02665767</v>
+        <v>-5.02665797</v>
       </c>
     </row>
   </sheetData>
